--- a/data/trans_dic/P56$familiar-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1812124731850316</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4839352300070374</v>
+        <v>0.4839352300070373</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2087289063475846</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0809560276095052</v>
+        <v>0.08465262913140439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1262000549489359</v>
+        <v>0.1272616866873457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06954557109109721</v>
+        <v>0.06899047105033963</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3122529117106177</v>
+        <v>0.3142680021587799</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1054953516124681</v>
+        <v>0.1101420947101811</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.214267258312161</v>
+        <v>0.2074234375021916</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1696031100382702</v>
+        <v>0.167349117014475</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4271964207841143</v>
+        <v>0.4294463432312758</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1142733778255945</v>
+        <v>0.1279186144620518</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2055759089772345</v>
+        <v>0.2067873025283891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1603116389627172</v>
+        <v>0.1588855966312408</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4290776386192339</v>
+        <v>0.4303808335341874</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4252705362285392</v>
+        <v>0.4221752406728093</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4686557207983711</v>
+        <v>0.470743007974135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.35246364725343</v>
+        <v>0.3608619987239047</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.650976241487113</v>
+        <v>0.6401877732414011</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3460887590853319</v>
+        <v>0.3418456367015841</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4358272058961303</v>
+        <v>0.4292171681092812</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4060418698029785</v>
+        <v>0.4283246564759282</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6022754148140262</v>
+        <v>0.6063784993005812</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3156461803333722</v>
+        <v>0.3316448348205137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3954232343276141</v>
+        <v>0.3977923701255604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3628486948344789</v>
+        <v>0.3574775248630737</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5875077266316094</v>
+        <v>0.5884639148773817</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.256511610136675</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6148519965717267</v>
+        <v>0.6148519965717268</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.137324873288807</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1104760231462037</v>
+        <v>0.102455065874006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05029210721545755</v>
+        <v>0.05105088215434635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4018695860568128</v>
+        <v>0.4030917596477561</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04806462881263329</v>
+        <v>0.04699574495972009</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.229400128113323</v>
+        <v>0.2349860602394473</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1321854249235495</v>
+        <v>0.1413172193094386</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5414769995018867</v>
+        <v>0.5498714549007198</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05280424488755109</v>
+        <v>0.05367560695533748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.215737117453808</v>
+        <v>0.2395697150980574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.13408602864185</v>
+        <v>0.1383653380043219</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5279216176516872</v>
+        <v>0.5294221434551843</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3685259281609893</v>
+        <v>0.3652710778777364</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4890292433296999</v>
+        <v>0.4733336576664438</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4093176792661434</v>
+        <v>0.4183448509862491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6593165605132286</v>
+        <v>0.6471274069981138</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3848478463148765</v>
+        <v>0.3748816074400082</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4622032042249001</v>
+        <v>0.4532320827011568</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4307104537578813</v>
+        <v>0.4381757087065881</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6835270890788594</v>
+        <v>0.6909403120721053</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2819169156134768</v>
+        <v>0.2929222829429587</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4113532371521586</v>
+        <v>0.4267833543215533</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3760815680399877</v>
+        <v>0.3750479035416867</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6493173151858441</v>
+        <v>0.6484834895558664</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.137873196916882</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5625306901606337</v>
+        <v>0.5625306901606338</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1720719617507203</v>
@@ -957,7 +957,7 @@
         <v>0.2926846319992525</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.576277119355284</v>
+        <v>0.5762771193552841</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2184649274014727</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07904646303519176</v>
+        <v>0.08083671653111914</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09330262684852447</v>
+        <v>0.0897221270332515</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3882605946900497</v>
+        <v>0.3902965956437073</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1173675400434446</v>
+        <v>0.1265989738277576</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1460536287992677</v>
+        <v>0.1398322032130981</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4769737204426407</v>
+        <v>0.4813749751134177</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07614825560608912</v>
+        <v>0.08639534777966029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1418257145090643</v>
+        <v>0.1412847068652978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1408884507324079</v>
+        <v>0.1430524501852717</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4843836020100378</v>
+        <v>0.4812560391503914</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6780094510663544</v>
+        <v>0.685003154403184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4643998855640197</v>
+        <v>0.4684883716955233</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4284250818902424</v>
+        <v>0.4081460537603623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7098924370781561</v>
+        <v>0.7107497484908649</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5206633381367607</v>
+        <v>0.5110621601727228</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3867037817468725</v>
+        <v>0.4010376177708381</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4744598925970738</v>
+        <v>0.4707034081212522</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6719226033990024</v>
+        <v>0.6770895723741324</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4311063370178689</v>
+        <v>0.4491671405841684</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3801280917958791</v>
+        <v>0.3674740557940117</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3952184653751191</v>
+        <v>0.4080568345436665</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6466546469703252</v>
+        <v>0.6540899140061494</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1569339284717735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3928953399795063</v>
+        <v>0.3928953399795062</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1914916202713705</v>
@@ -1093,7 +1093,7 @@
         <v>0.1123717426727889</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4295822617114562</v>
+        <v>0.4295822617114561</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2965829338365297</v>
@@ -1105,7 +1105,7 @@
         <v>0.1317814726695683</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4168275482533432</v>
+        <v>0.4168275482533431</v>
       </c>
     </row>
     <row r="14">
@@ -1120,34 +1120,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04744896670215169</v>
+        <v>0.04834408207458703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2299795915724476</v>
+        <v>0.2225224445210364</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06137849867398171</v>
+        <v>0.05392036223721733</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3273812317809645</v>
+        <v>0.3091885413972047</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08482780735477281</v>
+        <v>0.1159586180095232</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04536142941853447</v>
+        <v>0.04368240434519697</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3246847620387829</v>
+        <v>0.321268019056194</v>
       </c>
     </row>
     <row r="15">
@@ -1159,37 +1159,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.8065844145687984</v>
+        <v>0.8054554417116693</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3856038607138279</v>
+        <v>0.415517177398503</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5625081635587452</v>
+        <v>0.5576125560697249</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7733426061319725</v>
+        <v>0.7677687031357942</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4564387599530291</v>
+        <v>0.4503713954210552</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2997505212431466</v>
+        <v>0.3486905685869414</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5541485384807324</v>
+        <v>0.5409107152650959</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7347232379491704</v>
+        <v>0.8113305736709412</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4531465910799252</v>
+        <v>0.4566720465129136</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2882121022030156</v>
+        <v>0.268930890851094</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.513624969608237</v>
+        <v>0.5144779175595867</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.2543540351605043</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5515501801785776</v>
+        <v>0.5515501801785774</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1951470939411612</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1174515602091384</v>
+        <v>0.115611074072934</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1044162580063643</v>
+        <v>0.103054018908438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1061692652029618</v>
+        <v>0.1128071035506499</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2337814019920777</v>
+        <v>0.2385591987130062</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1875150929376441</v>
+        <v>0.1835310356475819</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5074384125615263</v>
+        <v>0.5036360198743761</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1351497801159244</v>
+        <v>0.1301233762392169</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2328449983240431</v>
+        <v>0.2400769120572213</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1745861032073351</v>
+        <v>0.176303088477662</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5009460351361718</v>
+        <v>0.4955679676589408</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3462036767431625</v>
+        <v>0.3425246647638562</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.285373495692208</v>
+        <v>0.2703784382469567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2856234698725186</v>
+        <v>0.2902353241686983</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3636443600823877</v>
+        <v>0.3666449591737881</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3261778256864998</v>
+        <v>0.3386152265489721</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5973148220284061</v>
+        <v>0.594169193571402</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2703277447679653</v>
+        <v>0.2657844001528296</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3434016935201323</v>
+        <v>0.3478544995583518</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3020079666916392</v>
+        <v>0.2956086553635004</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5744115869814223</v>
+        <v>0.5752559440034577</v>
       </c>
     </row>
     <row r="19">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1801</v>
+        <v>1883</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3228</v>
+        <v>3255</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1670</v>
+        <v>1656</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7780</v>
+        <v>7831</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5158</v>
+        <v>5385</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14768</v>
+        <v>14296</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11112</v>
+        <v>10964</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30794</v>
+        <v>30956</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8130</v>
+        <v>9101</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19427</v>
+        <v>19542</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14352</v>
+        <v>14224</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>41621</v>
+        <v>41747</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9462</v>
+        <v>9393</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11987</v>
+        <v>12040</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8462</v>
+        <v>8664</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16220</v>
+        <v>15952</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16922</v>
+        <v>16715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30039</v>
+        <v>29583</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26602</v>
+        <v>28062</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43414</v>
+        <v>43710</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22456</v>
+        <v>23595</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>37368</v>
+        <v>37592</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>32484</v>
+        <v>32003</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>56988</v>
+        <v>57081</v>
       </c>
     </row>
     <row r="8">
@@ -1779,37 +1779,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2852</v>
+        <v>2645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15447</v>
+        <v>15494</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17551</v>
+        <v>17979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5674</v>
+        <v>6066</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>54541</v>
+        <v>55387</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22076</v>
+        <v>24514</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8175</v>
+        <v>8436</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>73468</v>
+        <v>73677</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5195</v>
+        <v>5149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12625</v>
+        <v>12220</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7387</v>
+        <v>7550</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25342</v>
+        <v>24874</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8997</v>
+        <v>8764</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35363</v>
+        <v>34677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18487</v>
+        <v>18808</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>68850</v>
+        <v>69596</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10565</v>
+        <v>10978</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>42093</v>
+        <v>43671</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>22930</v>
+        <v>22867</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>90362</v>
+        <v>90246</v>
       </c>
     </row>
     <row r="12">
@@ -1956,40 +1956,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1934</v>
+        <v>1860</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8989</v>
+        <v>9037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4587</v>
+        <v>4948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6058</v>
+        <v>5800</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27510</v>
+        <v>27764</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1734</v>
+        <v>1967</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8484</v>
+        <v>8451</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7708</v>
+        <v>7826</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>39152</v>
+        <v>38899</v>
       </c>
     </row>
     <row r="15">
@@ -2000,40 +2000,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6305</v>
+        <v>6371</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9628</v>
+        <v>9713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5669</v>
+        <v>5401</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16436</v>
+        <v>16456</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7011</v>
+        <v>6881</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15114</v>
+        <v>15675</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19679</v>
+        <v>19523</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>38754</v>
+        <v>39052</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9814</v>
+        <v>10225</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22739</v>
+        <v>21982</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21622</v>
+        <v>22324</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>52268</v>
+        <v>52869</v>
       </c>
     </row>
     <row r="16">
@@ -2140,34 +2140,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5075</v>
+        <v>4911</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1204</v>
+        <v>1058</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>13557</v>
+        <v>12803</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2205</v>
+        <v>3014</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1667</v>
+        <v>1605</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>20610</v>
+        <v>20393</v>
       </c>
     </row>
     <row r="19">
@@ -2179,37 +2179,37 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5144</v>
+        <v>5137</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6172</v>
+        <v>6651</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12414</v>
+        <v>12306</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4252</v>
+        <v>4221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8954</v>
+        <v>8835</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6218</v>
+        <v>7233</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22947</v>
+        <v>22399</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4643</v>
+        <v>5127</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>11780</v>
+        <v>11871</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10592</v>
+        <v>9883</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>32603</v>
+        <v>32658</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5458</v>
+        <v>5372</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7444</v>
+        <v>7347</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9687</v>
+        <v>10292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>47723</v>
+        <v>48699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>32001</v>
+        <v>31321</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>137969</v>
+        <v>136936</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18611</v>
+        <v>17919</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>65812</v>
+        <v>67856</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>42242</v>
+        <v>42657</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>190595</v>
+        <v>188549</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16087</v>
+        <v>15916</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20346</v>
+        <v>19277</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>26060</v>
+        <v>26480</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>74233</v>
+        <v>74845</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>55665</v>
+        <v>57787</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>162406</v>
+        <v>161551</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>37225</v>
+        <v>36600</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>97059</v>
+        <v>98318</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>73072</v>
+        <v>71523</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>218546</v>
+        <v>218868</v>
       </c>
     </row>
     <row r="24">
